--- a/nodes_source_analyses/energy/energy_power_combined_cycle_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_combined_cycle_network_gas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -416,9 +424,6 @@
   </si>
   <si>
     <t>Costs</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -753,6 +758,10 @@
   <si>
     <t>energy_power_combined_cycle_network_gas.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +774,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -918,11 +927,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1562,7 +1566,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1573,46 +1577,46 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1621,14 +1625,14 @@
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1637,7 +1641,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1661,14 +1665,14 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1786,34 +1790,34 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2060,80 +2064,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3873500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2516,7 +2455,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2953,45 +2892,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>103</v>
@@ -3000,7 +2939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -3009,29 +2948,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="77" t="s">
         <v>106</v>
@@ -3040,33 +2979,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="77"/>
       <c r="C12" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="77" t="s">
         <v>111</v>
@@ -3075,49 +3014,49 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>119</v>
@@ -3126,49 +3065,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="167" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -3176,7 +3110,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="170"/>
       <c r="C3" s="171"/>
       <c r="D3" s="171"/>
@@ -3184,7 +3118,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="170"/>
       <c r="C4" s="171"/>
       <c r="D4" s="171"/>
@@ -3192,7 +3126,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="173"/>
       <c r="C5" s="174"/>
       <c r="D5" s="174"/>
@@ -3200,10 +3134,10 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3214,7 +3148,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="95"/>
       <c r="C8" s="15" t="s">
         <v>33</v>
@@ -3235,7 +3169,7 @@
       </c>
       <c r="J8" s="97"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -3246,10 +3180,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="14"/>
@@ -3259,7 +3193,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -3275,11 +3209,11 @@
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
       <c r="I11" s="107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>36</v>
@@ -3299,7 +3233,7 @@
       <c r="J12" s="98"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>37</v>
@@ -3319,7 +3253,7 @@
       <c r="J13" s="98"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>39</v>
@@ -3339,7 +3273,7 @@
       <c r="J14" s="98"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>11</v>
@@ -3359,7 +3293,7 @@
       <c r="J15" s="98"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>42</v>
@@ -3379,7 +3313,7 @@
       <c r="J16" s="98"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>43</v>
@@ -3399,7 +3333,7 @@
       <c r="J17" s="98"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>44</v>
@@ -3421,7 +3355,7 @@
       </c>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>45</v>
@@ -3442,7 +3376,7 @@
       </c>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="73" t="s">
         <v>88</v>
@@ -3463,7 +3397,7 @@
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="73" t="s">
         <v>89</v>
@@ -3484,7 +3418,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="73" t="s">
         <v>90</v>
@@ -3505,7 +3439,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="73" t="s">
         <v>91</v>
@@ -3526,7 +3460,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="73" t="s">
         <v>92</v>
@@ -3547,7 +3481,7 @@
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="37"/>
       <c r="C25" s="102"/>
       <c r="D25" s="99"/>
@@ -3558,10 +3492,10 @@
       <c r="I25" s="32"/>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="103"/>
@@ -3571,7 +3505,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>46</v>
@@ -3589,11 +3523,11 @@
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>47</v>
@@ -3614,7 +3548,7 @@
       </c>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>13</v>
@@ -3635,7 +3569,7 @@
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>48</v>
@@ -3656,7 +3590,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>49</v>
@@ -3678,7 +3612,7 @@
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>50</v>
@@ -3700,7 +3634,7 @@
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>51</v>
@@ -3721,7 +3655,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>41</v>
@@ -3740,7 +3674,7 @@
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>54</v>
@@ -3761,7 +3695,7 @@
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="37"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -3772,7 +3706,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="14" t="s">
         <v>8</v>
@@ -3785,7 +3719,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>40</v>
@@ -3807,7 +3741,7 @@
       </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="33" t="s">
         <v>52</v>
@@ -3825,11 +3759,11 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="33" t="s">
         <v>53</v>
@@ -3847,11 +3781,11 @@
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="33" t="s">
         <v>38</v>
@@ -3870,7 +3804,7 @@
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="45" t="s">
         <v>66</v>
@@ -3887,7 +3821,7 @@
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="45" t="s">
         <v>67</v>
@@ -3904,7 +3838,7 @@
       </c>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="45" t="s">
         <v>69</v>
@@ -3921,7 +3855,7 @@
       </c>
       <c r="J44" s="98"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="45" t="s">
         <v>70</v>
@@ -3938,7 +3872,7 @@
       </c>
       <c r="J45" s="98"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="45" t="s">
         <v>68</v>
@@ -3955,7 +3889,7 @@
       </c>
       <c r="J46" s="98"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -3972,43 +3906,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3873500</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4023,43 +3920,43 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="114" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="114" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="114" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="114" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="114" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="114" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="114" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="114" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="114" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="114" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="114" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="114" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="114" customWidth="1"/>
     <col min="8" max="8" width="11" style="114" customWidth="1"/>
-    <col min="9" max="9" width="3.125" style="114" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="115" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="115" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="115" customWidth="1"/>
-    <col min="13" max="13" width="2.75" style="115" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="115" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="114" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="115" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="115" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="115" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="115" customWidth="1"/>
     <col min="15" max="15" width="3" style="115" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="115" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="115" customWidth="1"/>
     <col min="17" max="17" width="3" style="115" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="115" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="115" customWidth="1"/>
     <col min="19" max="19" width="3" style="115" customWidth="1"/>
-    <col min="20" max="20" width="8.75" style="115" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="115" customWidth="1"/>
     <col min="21" max="21" width="3" style="115" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="115" customWidth="1"/>
-    <col min="23" max="23" width="2.625" style="115" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="115" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="115" customWidth="1"/>
+    <col min="23" max="23" width="2.5703125" style="115" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="115" customWidth="1"/>
     <col min="25" max="25" width="3" style="115" customWidth="1"/>
-    <col min="26" max="26" width="8.25" style="115" customWidth="1"/>
-    <col min="27" max="27" width="3.375" style="115" customWidth="1"/>
-    <col min="28" max="28" width="8.5" style="115" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="115" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" style="115" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="115" customWidth="1"/>
     <col min="29" max="29" width="2" style="115" customWidth="1"/>
-    <col min="30" max="30" width="80.5" style="114" customWidth="1"/>
-    <col min="31" max="16384" width="10.625" style="114"/>
+    <col min="30" max="30" width="80.42578125" style="114" customWidth="1"/>
+    <col min="31" max="16384" width="10.7109375" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="16" thickBot="1"/>
-    <row r="2" spans="2:30">
+    <row r="1" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="116"/>
       <c r="C2" s="117"/>
       <c r="D2" s="117"/>
@@ -4090,7 +3987,7 @@
       <c r="AC2" s="118"/>
       <c r="AD2" s="117"/>
     </row>
-    <row r="3" spans="2:30" s="21" customFormat="1">
+    <row r="3" spans="2:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="90" t="s">
         <v>120</v>
@@ -4114,19 +4011,19 @@
       </c>
       <c r="M3" s="67"/>
       <c r="N3" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O3" s="67"/>
       <c r="P3" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="67"/>
       <c r="R3" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S3" s="67"/>
       <c r="T3" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U3" s="67"/>
       <c r="V3" s="67" t="s">
@@ -4134,11 +4031,11 @@
       </c>
       <c r="W3" s="67"/>
       <c r="X3" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y3" s="67"/>
       <c r="Z3" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA3" s="67"/>
       <c r="AB3" s="67" t="s">
@@ -4146,10 +4043,10 @@
       </c>
       <c r="AC3" s="67"/>
       <c r="AD3" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="120"/>
       <c r="D4" s="120"/>
@@ -4180,7 +4077,7 @@
       <c r="AC4" s="92"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="2:30" ht="16" thickBot="1">
+    <row r="5" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119"/>
       <c r="C5" s="29" t="s">
         <v>123</v>
@@ -4213,7 +4110,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="122"/>
     </row>
-    <row r="6" spans="2:30" ht="16" thickBot="1">
+    <row r="6" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119"/>
       <c r="C6" s="123" t="s">
         <v>30</v>
@@ -4266,7 +4163,7 @@
       </c>
       <c r="AD6" s="122"/>
     </row>
-    <row r="7" spans="2:30" ht="16" thickBot="1">
+    <row r="7" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119"/>
       <c r="C7" s="123" t="s">
         <v>76</v>
@@ -4309,7 +4206,7 @@
       <c r="AB7" s="131"/>
       <c r="AD7" s="122"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="119"/>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
@@ -4339,7 +4236,7 @@
       <c r="AB8" s="131"/>
       <c r="AD8" s="135"/>
     </row>
-    <row r="9" spans="2:30" ht="16" thickBot="1">
+    <row r="9" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="119"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -4372,7 +4269,7 @@
       <c r="AC9" s="131"/>
       <c r="AD9" s="30"/>
     </row>
-    <row r="10" spans="2:30" ht="16" thickBot="1">
+    <row r="10" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="119"/>
       <c r="C10" s="136" t="s">
         <v>1</v>
@@ -4416,7 +4313,7 @@
       <c r="AC10" s="121"/>
       <c r="AD10" s="122"/>
     </row>
-    <row r="11" spans="2:30" ht="16" thickBot="1">
+    <row r="11" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="119"/>
       <c r="C11" s="139" t="s">
         <v>6</v>
@@ -4460,7 +4357,7 @@
       <c r="AC11" s="121"/>
       <c r="AD11" s="122"/>
     </row>
-    <row r="12" spans="2:30" ht="16" thickBot="1">
+    <row r="12" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="119"/>
       <c r="C12" s="141" t="s">
         <v>121</v>
@@ -4499,10 +4396,10 @@
         <v>0.12968399999999999</v>
       </c>
       <c r="AD12" s="146" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="119"/>
       <c r="C13" s="141"/>
       <c r="D13" s="141"/>
@@ -4534,7 +4431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="16" thickBot="1">
+    <row r="14" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="119"/>
       <c r="C14" s="13" t="s">
         <v>124</v>
@@ -4566,10 +4463,10 @@
       <c r="AB14" s="131"/>
       <c r="AC14" s="131"/>
       <c r="AD14" s="122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" ht="16" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="119"/>
       <c r="C15" s="123" t="s">
         <v>122</v>
@@ -4606,10 +4503,10 @@
       <c r="AB15" s="131"/>
       <c r="AC15" s="131"/>
       <c r="AD15" s="122" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" ht="16" thickBot="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="119"/>
       <c r="C16" s="148" t="s">
         <v>9</v>
@@ -4617,7 +4514,7 @@
       <c r="D16" s="148"/>
       <c r="E16" s="148"/>
       <c r="F16" s="124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="125"/>
       <c r="H16" s="137">
@@ -4656,11 +4553,11 @@
       <c r="AC16" s="131"/>
       <c r="AD16" s="122"/>
     </row>
-    <row r="17" spans="1:30" ht="16" thickBot="1">
+    <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="150"/>
       <c r="B17" s="119"/>
       <c r="C17" s="148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="148"/>
       <c r="E17" s="148"/>
@@ -4695,10 +4592,10 @@
       <c r="AC17" s="131"/>
       <c r="AD17" s="152"/>
     </row>
-    <row r="18" spans="1:30" ht="16" thickBot="1">
+    <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="119"/>
       <c r="C18" s="136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4733,15 +4630,15 @@
       <c r="AC18" s="133"/>
       <c r="AD18" s="164"/>
     </row>
-    <row r="19" spans="1:30" ht="16" thickBot="1">
+    <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="119"/>
       <c r="C19" s="136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="120"/>
       <c r="H19" s="151">
@@ -4781,10 +4678,10 @@
       <c r="AB19" s="147"/>
       <c r="AC19" s="133"/>
       <c r="AD19" s="165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="16" thickBot="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="119"/>
       <c r="C20" s="136" t="s">
         <v>61</v>
@@ -4821,10 +4718,10 @@
       <c r="AB20" s="147"/>
       <c r="AC20" s="133"/>
       <c r="AD20" s="164" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="16" thickBot="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="119"/>
       <c r="C21" s="136" t="s">
         <v>61</v>
@@ -4832,7 +4729,7 @@
       <c r="D21" s="155"/>
       <c r="E21" s="155"/>
       <c r="F21" s="124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="125"/>
       <c r="H21" s="149">
@@ -4873,10 +4770,10 @@
       <c r="AB21" s="133"/>
       <c r="AC21" s="133"/>
       <c r="AD21" s="164" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="16" thickBot="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="119"/>
       <c r="C22" s="136" t="s">
         <v>61</v>
@@ -4913,13 +4810,13 @@
       <c r="AB22" s="133"/>
       <c r="AC22" s="133"/>
       <c r="AD22" s="164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="16" thickBot="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="122"/>
@@ -4953,15 +4850,15 @@
       <c r="AC23" s="131"/>
       <c r="AD23" s="164"/>
     </row>
-    <row r="24" spans="1:30" ht="16" thickBot="1">
+    <row r="24" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="119"/>
       <c r="C24" s="136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="122"/>
       <c r="E24" s="122"/>
       <c r="F24" s="122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="156">
@@ -4997,11 +4894,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5016,22 +4908,22 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="32.875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="136.75" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="136.7109375" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -5043,7 +4935,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
@@ -5057,7 +4949,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -5069,7 +4961,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>31</v>
@@ -5085,19 +4977,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -5109,7 +5001,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
@@ -5123,17 +5015,17 @@
         <v>99</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K7" s="71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>75</v>
@@ -5147,7 +5039,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -5159,7 +5051,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -5177,13 +5069,13 @@
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K10" s="63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="64" t="s">
         <v>75</v>
@@ -5196,7 +5088,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="59"/>
       <c r="D12" s="60"/>
@@ -5208,7 +5100,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="59"/>
       <c r="D13" s="60"/>
@@ -5226,16 +5118,16 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K13" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -5246,10 +5138,10 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
@@ -5260,7 +5152,7 @@
       <c r="J15" s="55"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
         <v>61</v>
@@ -5274,7 +5166,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -5286,12 +5178,12 @@
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="54" t="s">
         <v>73</v>
@@ -5304,13 +5196,13 @@
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K18" s="63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="59" t="s">
         <v>82</v>
@@ -5324,7 +5216,7 @@
       <c r="J19" s="55"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="60" t="s">
         <v>1</v>
@@ -5338,7 +5230,7 @@
       <c r="J20" s="55"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5350,12 +5242,12 @@
       <c r="J21" s="55"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="54" t="s">
         <v>101</v>
@@ -5368,13 +5260,13 @@
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
       <c r="C23" s="60" t="s">
         <v>1</v>
@@ -5388,7 +5280,7 @@
       <c r="J23" s="55"/>
       <c r="K23" s="59"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
         <v>82</v>
@@ -5402,7 +5294,7 @@
       <c r="J24" s="66"/>
       <c r="K24" s="59"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="51"/>
       <c r="C25" s="59" t="s">
         <v>77</v>
@@ -5415,15 +5307,15 @@
       <c r="J25" s="66"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="51"/>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>186</v>
       </c>
       <c r="G26" s="70">
         <v>2012</v>
@@ -5433,16 +5325,16 @@
       </c>
       <c r="I26" s="59"/>
       <c r="J26" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="51"/>
       <c r="C27" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="59"/>
       <c r="F27" s="59"/>
@@ -5452,10 +5344,10 @@
       <c r="J27" s="66"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="51"/>
       <c r="C28" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="59"/>
       <c r="F28" s="59"/>
@@ -5465,7 +5357,7 @@
       <c r="J28" s="66"/>
       <c r="K28" s="63"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="51"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5476,12 +5368,12 @@
       <c r="J29" s="66"/>
       <c r="K29" s="63"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="59" t="s">
         <v>78</v>
@@ -5494,16 +5386,16 @@
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="51"/>
       <c r="C31" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="54"/>
@@ -5514,10 +5406,10 @@
       <c r="J31" s="66"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="51"/>
       <c r="C32" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="54"/>
@@ -5528,7 +5420,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="64" t="s">
         <v>61</v>
@@ -5542,7 +5434,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
       <c r="C34" s="64"/>
       <c r="D34" s="59"/>
@@ -5554,15 +5446,15 @@
       <c r="J34" s="66"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="51"/>
       <c r="C35" s="64"/>
       <c r="D35" s="59"/>
       <c r="E35" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" s="70">
         <v>2012</v>
@@ -5572,16 +5464,16 @@
       </c>
       <c r="I35" s="59"/>
       <c r="J35" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="51"/>
       <c r="C36" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="59"/>
       <c r="E36" s="54"/>
@@ -5592,7 +5484,7 @@
       <c r="J36" s="66"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="51"/>
       <c r="C37" s="64" t="s">
         <v>61</v>
@@ -5606,7 +5498,7 @@
       <c r="J37" s="66"/>
       <c r="K37" s="59"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="51"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -5618,32 +5510,32 @@
       <c r="J38" s="66"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="51"/>
       <c r="C39" s="59"/>
       <c r="D39" s="64"/>
       <c r="E39" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="59"/>
       <c r="J39" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="51"/>
       <c r="C40" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="59"/>
@@ -5654,7 +5546,7 @@
       <c r="J40" s="66"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="51"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -5666,7 +5558,7 @@
       <c r="J41" s="66"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="51"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -5686,7 +5578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="51"/>
       <c r="C43" s="59" t="s">
         <v>100</v>
@@ -5713,11 +5605,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G10:H10 G13:H13 G39:H39" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5729,15 +5616,15 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="106" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="106" customWidth="1"/>
     <col min="2" max="2" width="4" style="106" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="106"/>
+    <col min="3" max="16384" width="10.7109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16" s="21" customFormat="1">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="108"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -5754,13 +5641,13 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:16" s="21" customFormat="1">
+    <row r="3" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="95"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -5775,10 +5662,10 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="109"/>
       <c r="C4" s="110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
@@ -5794,10 +5681,10 @@
       <c r="O4" s="110"/>
       <c r="P4" s="110"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="109"/>
       <c r="C5" s="110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="110"/>
       <c r="E5" s="110"/>
@@ -5813,7 +5700,7 @@
       <c r="O5" s="110"/>
       <c r="P5" s="110"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="109"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
@@ -5830,7 +5717,7 @@
       <c r="O6" s="110"/>
       <c r="P6" s="110"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="109"/>
       <c r="C7" s="110"/>
       <c r="D7" s="110"/>
@@ -5847,7 +5734,7 @@
       <c r="O7" s="110"/>
       <c r="P7" s="110"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="109"/>
       <c r="C8" s="110"/>
       <c r="D8" s="110"/>
@@ -5864,7 +5751,7 @@
       <c r="O8" s="110"/>
       <c r="P8" s="110"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="109"/>
       <c r="C9" s="110"/>
       <c r="D9" s="110"/>
@@ -5881,7 +5768,7 @@
       <c r="O9" s="110"/>
       <c r="P9" s="110"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
       <c r="D10" s="110"/>
@@ -5898,7 +5785,7 @@
       <c r="O10" s="110"/>
       <c r="P10" s="110"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="109"/>
       <c r="C11" s="110"/>
       <c r="D11" s="110"/>
@@ -5915,7 +5802,7 @@
       <c r="O11" s="110"/>
       <c r="P11" s="110"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="109"/>
       <c r="C12" s="110"/>
       <c r="D12" s="110"/>
@@ -5932,7 +5819,7 @@
       <c r="O12" s="110"/>
       <c r="P12" s="110"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="109"/>
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
@@ -5949,7 +5836,7 @@
       <c r="O13" s="110"/>
       <c r="P13" s="110"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="109"/>
       <c r="C14" s="110"/>
       <c r="D14" s="110"/>
@@ -5966,7 +5853,7 @@
       <c r="O14" s="110"/>
       <c r="P14" s="110"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="109"/>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -5983,7 +5870,7 @@
       <c r="O15" s="110"/>
       <c r="P15" s="110"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="109"/>
       <c r="C16" s="110"/>
       <c r="D16" s="110"/>
@@ -6000,7 +5887,7 @@
       <c r="O16" s="110"/>
       <c r="P16" s="110"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="109"/>
       <c r="C17" s="110"/>
       <c r="D17" s="110"/>
@@ -6017,7 +5904,7 @@
       <c r="O17" s="110"/>
       <c r="P17" s="110"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="109"/>
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
@@ -6034,14 +5921,14 @@
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="109"/>
       <c r="C19" s="110"/>
       <c r="D19" s="110">
         <v>120000</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
@@ -6055,14 +5942,14 @@
       <c r="O19" s="110"/>
       <c r="P19" s="110"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="109"/>
       <c r="C20" s="110"/>
       <c r="D20" s="110">
         <v>1050</v>
       </c>
       <c r="E20" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
@@ -6076,7 +5963,7 @@
       <c r="O20" s="110"/>
       <c r="P20" s="110"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="109"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110">
@@ -6097,7 +5984,7 @@
       <c r="O21" s="110"/>
       <c r="P21" s="110"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="109"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
@@ -6114,7 +6001,7 @@
       <c r="O22" s="110"/>
       <c r="P22" s="110"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="109"/>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
@@ -6131,10 +6018,10 @@
       <c r="O23" s="110"/>
       <c r="P23" s="110"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="109"/>
       <c r="C24" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
@@ -6150,7 +6037,7 @@
       <c r="O24" s="110"/>
       <c r="P24" s="110"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="109"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
@@ -6167,7 +6054,7 @@
       <c r="O25" s="110"/>
       <c r="P25" s="110"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="109"/>
       <c r="C26" s="110"/>
       <c r="D26" s="110"/>
@@ -6184,7 +6071,7 @@
       <c r="O26" s="110"/>
       <c r="P26" s="110"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="109"/>
       <c r="C27" s="110"/>
       <c r="D27" s="110"/>
@@ -6201,7 +6088,7 @@
       <c r="O27" s="110"/>
       <c r="P27" s="110"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="109"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
@@ -6218,7 +6105,7 @@
       <c r="O28" s="110"/>
       <c r="P28" s="110"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="109"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
@@ -6235,7 +6122,7 @@
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="109"/>
       <c r="C30" s="110"/>
       <c r="D30" s="110"/>
@@ -6252,7 +6139,7 @@
       <c r="O30" s="110"/>
       <c r="P30" s="110"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="109"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
@@ -6269,7 +6156,7 @@
       <c r="O31" s="110"/>
       <c r="P31" s="110"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="109"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
@@ -6286,7 +6173,7 @@
       <c r="O32" s="110"/>
       <c r="P32" s="110"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="109"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
@@ -6303,7 +6190,7 @@
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="109"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
@@ -6320,7 +6207,7 @@
       <c r="O34" s="110"/>
       <c r="P34" s="110"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="109"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
@@ -6337,7 +6224,7 @@
       <c r="O35" s="110"/>
       <c r="P35" s="110"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
@@ -6354,7 +6241,7 @@
       <c r="O36" s="110"/>
       <c r="P36" s="110"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="109"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
@@ -6371,7 +6258,7 @@
       <c r="O37" s="110"/>
       <c r="P37" s="110"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="109"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110"/>
@@ -6388,7 +6275,7 @@
       <c r="O38" s="110"/>
       <c r="P38" s="110"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="109"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
@@ -6405,14 +6292,14 @@
       <c r="O39" s="110"/>
       <c r="P39" s="110"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110">
         <v>2520000</v>
       </c>
       <c r="E40" s="110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
@@ -6426,7 +6313,7 @@
       <c r="O40" s="110"/>
       <c r="P40" s="110"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="109"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
@@ -6443,7 +6330,7 @@
       <c r="O41" s="110"/>
       <c r="P41" s="110"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="109"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -6460,7 +6347,7 @@
       <c r="O42" s="110"/>
       <c r="P42" s="110"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="109"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
@@ -6477,7 +6364,7 @@
       <c r="O43" s="110"/>
       <c r="P43" s="110"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="109"/>
       <c r="C44" s="110"/>
       <c r="D44" s="110"/>
@@ -6494,7 +6381,7 @@
       <c r="O44" s="110"/>
       <c r="P44" s="110"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="109"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
@@ -6511,7 +6398,7 @@
       <c r="O45" s="110"/>
       <c r="P45" s="110"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="109"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
@@ -6528,7 +6415,7 @@
       <c r="O46" s="110"/>
       <c r="P46" s="110"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="109"/>
       <c r="C47" s="110" t="s">
         <v>74</v>
@@ -6547,10 +6434,10 @@
       <c r="O47" s="110"/>
       <c r="P47" s="110"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="109"/>
       <c r="C48" s="110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="110"/>
       <c r="E48" s="110"/>
@@ -6566,7 +6453,7 @@
       <c r="O48" s="110"/>
       <c r="P48" s="110"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="109"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
@@ -6583,7 +6470,7 @@
       <c r="O49" s="110"/>
       <c r="P49" s="110"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="109"/>
       <c r="C50" s="110"/>
       <c r="D50" s="110"/>
@@ -6600,7 +6487,7 @@
       <c r="O50" s="110"/>
       <c r="P50" s="110"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="109"/>
       <c r="C51" s="110"/>
       <c r="D51" s="110"/>
@@ -6617,7 +6504,7 @@
       <c r="O51" s="110"/>
       <c r="P51" s="110"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="109"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
@@ -6634,7 +6521,7 @@
       <c r="O52" s="110"/>
       <c r="P52" s="110"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="109"/>
       <c r="C53" s="110"/>
       <c r="D53" s="110"/>
@@ -6651,7 +6538,7 @@
       <c r="O53" s="110"/>
       <c r="P53" s="110"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="109"/>
       <c r="C54" s="110"/>
       <c r="D54" s="110"/>
@@ -6668,7 +6555,7 @@
       <c r="O54" s="110"/>
       <c r="P54" s="110"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="109"/>
       <c r="C55" s="110"/>
       <c r="D55" s="110">
@@ -6689,7 +6576,7 @@
       <c r="O55" s="110"/>
       <c r="P55" s="110"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="109"/>
       <c r="C56" s="110"/>
       <c r="D56" s="110">
@@ -6710,7 +6597,7 @@
       <c r="O56" s="110"/>
       <c r="P56" s="110"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="109"/>
       <c r="C57" s="110"/>
       <c r="D57" s="110"/>
@@ -6727,7 +6614,7 @@
       <c r="O57" s="110"/>
       <c r="P57" s="110"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="109"/>
       <c r="C58" s="110"/>
       <c r="D58" s="110"/>
@@ -6744,7 +6631,7 @@
       <c r="O58" s="110"/>
       <c r="P58" s="110"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="109"/>
       <c r="C59" s="110"/>
       <c r="D59" s="110"/>
@@ -6761,7 +6648,7 @@
       <c r="O59" s="110"/>
       <c r="P59" s="110"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="109"/>
       <c r="C60" s="110"/>
       <c r="D60" s="110"/>
@@ -6778,7 +6665,7 @@
       <c r="O60" s="110"/>
       <c r="P60" s="110"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="109"/>
       <c r="C61" s="110"/>
       <c r="D61" s="110"/>
@@ -6795,7 +6682,7 @@
       <c r="O61" s="110"/>
       <c r="P61" s="110"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="109"/>
       <c r="C62" s="110" t="s">
         <v>93</v>
@@ -6814,10 +6701,10 @@
       <c r="O62" s="110"/>
       <c r="P62" s="110"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="109"/>
       <c r="C63" s="110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="110"/>
       <c r="E63" s="110"/>
@@ -6833,7 +6720,7 @@
       <c r="O63" s="110"/>
       <c r="P63" s="110"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64" s="109"/>
       <c r="C64" s="110"/>
       <c r="D64" s="110"/>
@@ -6850,7 +6737,7 @@
       <c r="O64" s="110"/>
       <c r="P64" s="110"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="109"/>
       <c r="C65" s="110"/>
       <c r="D65" s="110"/>
@@ -6867,7 +6754,7 @@
       <c r="O65" s="110"/>
       <c r="P65" s="110"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="109"/>
       <c r="C66" s="110"/>
       <c r="D66" s="110"/>
@@ -6884,7 +6771,7 @@
       <c r="O66" s="110"/>
       <c r="P66" s="110"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="109"/>
       <c r="C67" s="110"/>
       <c r="D67" s="110"/>
@@ -6901,7 +6788,7 @@
       <c r="O67" s="110"/>
       <c r="P67" s="110"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="109"/>
       <c r="C68" s="110"/>
       <c r="D68" s="110"/>
@@ -6918,7 +6805,7 @@
       <c r="O68" s="110"/>
       <c r="P68" s="110"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="109"/>
       <c r="C69" s="110"/>
       <c r="D69" s="110"/>
@@ -6935,7 +6822,7 @@
       <c r="O69" s="110"/>
       <c r="P69" s="110"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="109"/>
       <c r="C70" s="110"/>
       <c r="D70" s="110"/>
@@ -6952,7 +6839,7 @@
       <c r="O70" s="110"/>
       <c r="P70" s="110"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="109"/>
       <c r="C71" s="110"/>
       <c r="D71" s="110">
@@ -6973,7 +6860,7 @@
       <c r="O71" s="110"/>
       <c r="P71" s="110"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="109"/>
       <c r="C72" s="110"/>
       <c r="D72" s="110">
@@ -6994,7 +6881,7 @@
       <c r="O72" s="110"/>
       <c r="P72" s="110"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="109"/>
       <c r="C73" s="110"/>
       <c r="D73" s="110"/>
@@ -7011,7 +6898,7 @@
       <c r="O73" s="110"/>
       <c r="P73" s="110"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="109"/>
       <c r="C74" s="110"/>
       <c r="D74" s="110"/>
@@ -7028,7 +6915,7 @@
       <c r="O74" s="110"/>
       <c r="P74" s="110"/>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="109"/>
       <c r="C75" s="110"/>
       <c r="D75" s="110"/>
@@ -7045,7 +6932,7 @@
       <c r="O75" s="110"/>
       <c r="P75" s="110"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="109"/>
       <c r="C76" s="110"/>
       <c r="D76" s="110"/>
@@ -7062,7 +6949,7 @@
       <c r="O76" s="110"/>
       <c r="P76" s="110"/>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="109"/>
       <c r="C77" s="110"/>
       <c r="D77" s="110"/>
@@ -7079,7 +6966,7 @@
       <c r="O77" s="110"/>
       <c r="P77" s="110"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="109"/>
       <c r="C78" s="110"/>
       <c r="D78" s="110"/>
@@ -7096,7 +6983,7 @@
       <c r="O78" s="110"/>
       <c r="P78" s="110"/>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="109"/>
       <c r="C79" s="110"/>
       <c r="D79" s="110"/>
@@ -7113,7 +7000,7 @@
       <c r="O79" s="110"/>
       <c r="P79" s="110"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="109"/>
       <c r="C80" s="110"/>
       <c r="D80" s="110"/>
@@ -7130,7 +7017,7 @@
       <c r="O80" s="110"/>
       <c r="P80" s="110"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="109"/>
       <c r="C81" s="110"/>
       <c r="D81" s="110"/>
@@ -7147,7 +7034,7 @@
       <c r="O81" s="110"/>
       <c r="P81" s="110"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="109"/>
       <c r="C82" s="110"/>
       <c r="D82" s="110"/>
@@ -7164,7 +7051,7 @@
       <c r="O82" s="110"/>
       <c r="P82" s="110"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="109"/>
       <c r="C83" s="110"/>
       <c r="D83" s="110"/>
@@ -7181,7 +7068,7 @@
       <c r="O83" s="110"/>
       <c r="P83" s="110"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="109"/>
       <c r="C84" s="110"/>
       <c r="D84" s="110"/>
@@ -7198,7 +7085,7 @@
       <c r="O84" s="110"/>
       <c r="P84" s="110"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="109"/>
       <c r="C85" s="110"/>
       <c r="D85" s="110"/>
@@ -7215,7 +7102,7 @@
       <c r="O85" s="110"/>
       <c r="P85" s="110"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="109"/>
       <c r="C86" s="110"/>
       <c r="D86" s="110"/>
@@ -7232,7 +7119,7 @@
       <c r="O86" s="110"/>
       <c r="P86" s="110"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="109"/>
       <c r="C87" s="110"/>
       <c r="D87" s="110"/>
@@ -7249,7 +7136,7 @@
       <c r="O87" s="110"/>
       <c r="P87" s="110"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="109"/>
       <c r="C88" s="110"/>
       <c r="D88" s="110"/>
@@ -7266,7 +7153,7 @@
       <c r="O88" s="110"/>
       <c r="P88" s="110"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="109"/>
       <c r="C89" s="110"/>
       <c r="D89" s="110"/>
@@ -7283,7 +7170,7 @@
       <c r="O89" s="110"/>
       <c r="P89" s="110"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="109"/>
       <c r="C90" s="110"/>
       <c r="D90" s="110"/>
@@ -7300,7 +7187,7 @@
       <c r="O90" s="110"/>
       <c r="P90" s="110"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="109"/>
       <c r="C91" s="110"/>
       <c r="D91" s="110"/>
@@ -7317,10 +7204,10 @@
       <c r="O91" s="110"/>
       <c r="P91" s="110"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="109"/>
       <c r="C92" s="110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D92" s="110"/>
       <c r="E92" s="110"/>
@@ -7336,10 +7223,10 @@
       <c r="O92" s="110"/>
       <c r="P92" s="110"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="109"/>
       <c r="C93" s="110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D93" s="110"/>
       <c r="E93" s="110"/>
@@ -7355,7 +7242,7 @@
       <c r="O93" s="110"/>
       <c r="P93" s="110"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="109"/>
       <c r="C94" s="110"/>
       <c r="D94" s="110"/>
@@ -7372,7 +7259,7 @@
       <c r="O94" s="110"/>
       <c r="P94" s="110"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="109"/>
       <c r="C95" s="110"/>
       <c r="D95" s="110"/>
@@ -7389,7 +7276,7 @@
       <c r="O95" s="110"/>
       <c r="P95" s="110"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="109"/>
       <c r="C96" s="110"/>
       <c r="D96" s="110"/>
@@ -7406,7 +7293,7 @@
       <c r="O96" s="110"/>
       <c r="P96" s="110"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="109"/>
       <c r="C97" s="110"/>
       <c r="D97" s="110"/>
@@ -7423,7 +7310,7 @@
       <c r="O97" s="110"/>
       <c r="P97" s="110"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" s="109"/>
       <c r="C98" s="110"/>
       <c r="D98" s="110"/>
@@ -7440,7 +7327,7 @@
       <c r="O98" s="110"/>
       <c r="P98" s="110"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99" s="109"/>
       <c r="C99" s="110"/>
       <c r="D99" s="110"/>
@@ -7457,14 +7344,14 @@
       <c r="O99" s="110"/>
       <c r="P99" s="110"/>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="109"/>
       <c r="C100" s="110"/>
       <c r="D100" s="110">
         <v>30</v>
       </c>
       <c r="E100" s="110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F100" s="110"/>
       <c r="G100" s="110"/>
@@ -7478,14 +7365,14 @@
       <c r="O100" s="110"/>
       <c r="P100" s="110"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="109"/>
       <c r="C101" s="110"/>
       <c r="D101" s="110">
         <v>30</v>
       </c>
       <c r="E101" s="110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F101" s="110"/>
       <c r="G101" s="110"/>
@@ -7499,7 +7386,7 @@
       <c r="O101" s="110"/>
       <c r="P101" s="110"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" s="109"/>
       <c r="C102" s="110"/>
       <c r="D102" s="110"/>
@@ -7516,7 +7403,7 @@
       <c r="O102" s="110"/>
       <c r="P102" s="110"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="109"/>
       <c r="C103" s="110"/>
       <c r="D103" s="110"/>
@@ -7533,7 +7420,7 @@
       <c r="O103" s="110"/>
       <c r="P103" s="110"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" s="109"/>
       <c r="C104" s="110"/>
       <c r="D104" s="110"/>
@@ -7550,7 +7437,7 @@
       <c r="O104" s="110"/>
       <c r="P104" s="110"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" s="109"/>
       <c r="C105" s="110"/>
       <c r="D105" s="110"/>
@@ -7567,7 +7454,7 @@
       <c r="O105" s="110"/>
       <c r="P105" s="110"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="109"/>
       <c r="C106" s="110"/>
       <c r="D106" s="110"/>
@@ -7584,7 +7471,7 @@
       <c r="O106" s="110"/>
       <c r="P106" s="110"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="109"/>
       <c r="C107" s="110"/>
       <c r="D107" s="110"/>
@@ -7601,10 +7488,10 @@
       <c r="O107" s="110"/>
       <c r="P107" s="110"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="109"/>
       <c r="C108" s="160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" s="110"/>
       <c r="E108" s="110"/>
@@ -7620,10 +7507,10 @@
       <c r="O108" s="110"/>
       <c r="P108" s="110"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" s="109"/>
       <c r="C109" s="110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" s="110"/>
       <c r="E109" s="110"/>
@@ -7639,7 +7526,7 @@
       <c r="O109" s="110"/>
       <c r="P109" s="110"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="109"/>
       <c r="C110" s="110"/>
       <c r="D110" s="110"/>
@@ -7656,7 +7543,7 @@
       <c r="O110" s="110"/>
       <c r="P110" s="110"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" s="109"/>
       <c r="C111" s="110"/>
       <c r="D111" s="110"/>
@@ -7673,14 +7560,14 @@
       <c r="O111" s="110"/>
       <c r="P111" s="110"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="109"/>
       <c r="C112" s="110"/>
       <c r="D112" s="110">
         <v>2.5</v>
       </c>
       <c r="E112" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F112" s="110"/>
       <c r="G112" s="110"/>
@@ -7694,14 +7581,14 @@
       <c r="O112" s="110"/>
       <c r="P112" s="110"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B113" s="109"/>
       <c r="C113" s="110"/>
       <c r="D113" s="110">
         <v>30</v>
       </c>
       <c r="E113" s="110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F113" s="110"/>
       <c r="G113" s="110"/>
@@ -7715,7 +7602,7 @@
       <c r="O113" s="110"/>
       <c r="P113" s="110"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B114" s="109"/>
       <c r="C114" s="110"/>
       <c r="D114" s="110"/>
@@ -7732,7 +7619,7 @@
       <c r="O114" s="110"/>
       <c r="P114" s="110"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B115" s="109"/>
       <c r="C115" s="110"/>
       <c r="D115" s="110"/>
@@ -7749,7 +7636,7 @@
       <c r="O115" s="110"/>
       <c r="P115" s="110"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B116" s="109"/>
       <c r="C116" s="110"/>
       <c r="D116" s="110"/>
@@ -7766,7 +7653,7 @@
       <c r="O116" s="110"/>
       <c r="P116" s="110"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B117" s="109"/>
       <c r="C117" s="110"/>
       <c r="D117" s="110"/>
@@ -7783,7 +7670,7 @@
       <c r="O117" s="110"/>
       <c r="P117" s="110"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B118" s="109"/>
       <c r="C118" s="110"/>
       <c r="D118" s="110"/>
@@ -7800,7 +7687,7 @@
       <c r="O118" s="110"/>
       <c r="P118" s="110"/>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="109"/>
       <c r="C119" s="110"/>
       <c r="D119" s="110"/>
@@ -7817,7 +7704,7 @@
       <c r="O119" s="110"/>
       <c r="P119" s="110"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B120" s="109"/>
       <c r="C120" s="110"/>
       <c r="D120" s="110"/>
@@ -7834,7 +7721,7 @@
       <c r="O120" s="110"/>
       <c r="P120" s="110"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B121" s="109"/>
       <c r="C121" s="110"/>
       <c r="D121" s="110"/>
@@ -7851,7 +7738,7 @@
       <c r="O121" s="110"/>
       <c r="P121" s="110"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B122" s="109"/>
       <c r="C122" s="110"/>
       <c r="D122" s="110"/>
@@ -7868,7 +7755,7 @@
       <c r="O122" s="110"/>
       <c r="P122" s="110"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B123" s="109"/>
       <c r="C123" s="110"/>
       <c r="D123" s="110"/>
@@ -7885,10 +7772,10 @@
       <c r="O123" s="110"/>
       <c r="P123" s="110"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B124" s="109"/>
       <c r="C124" s="160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="110"/>
       <c r="E124" s="110"/>
@@ -7904,10 +7791,10 @@
       <c r="O124" s="110"/>
       <c r="P124" s="110"/>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B125" s="109"/>
       <c r="C125" s="160" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125" s="110"/>
       <c r="E125" s="110"/>
@@ -7923,7 +7810,7 @@
       <c r="O125" s="110"/>
       <c r="P125" s="110"/>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B126" s="109"/>
       <c r="C126" s="110"/>
       <c r="D126" s="110"/>
@@ -7940,7 +7827,7 @@
       <c r="O126" s="110"/>
       <c r="P126" s="110"/>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B127" s="109"/>
       <c r="C127" s="110"/>
       <c r="D127" s="110">
@@ -7961,16 +7848,16 @@
       <c r="O127" s="110"/>
       <c r="P127" s="110"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B128" s="109"/>
       <c r="C128" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128" s="113">
         <v>35</v>
       </c>
       <c r="E128" s="160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F128" s="110"/>
       <c r="G128" s="110"/>
@@ -7984,7 +7871,7 @@
       <c r="O128" s="110"/>
       <c r="P128" s="110"/>
     </row>
-    <row r="129" spans="2:16">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="109"/>
       <c r="C129" s="110"/>
       <c r="D129" s="110">
@@ -7992,7 +7879,7 @@
         <v>16.45</v>
       </c>
       <c r="E129" s="112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F129" s="110"/>
       <c r="G129" s="110"/>
@@ -8006,16 +7893,16 @@
       <c r="O129" s="110"/>
       <c r="P129" s="110"/>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="109"/>
       <c r="C130" s="112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D130" s="113">
         <v>4.3</v>
       </c>
       <c r="E130" s="112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F130" s="110"/>
       <c r="G130" s="110"/>
@@ -8029,7 +7916,7 @@
       <c r="O130" s="110"/>
       <c r="P130" s="110"/>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="109"/>
       <c r="C131" s="110"/>
       <c r="D131" s="161">
@@ -8037,7 +7924,7 @@
         <v>2.0209999999999999</v>
       </c>
       <c r="E131" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F131" s="110"/>
       <c r="G131" s="110"/>
@@ -8051,7 +7938,7 @@
       <c r="O131" s="110"/>
       <c r="P131" s="110"/>
     </row>
-    <row r="132" spans="2:16">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="109"/>
       <c r="C132" s="110"/>
       <c r="D132" s="110"/>
@@ -8068,11 +7955,11 @@
       <c r="O132" s="110"/>
       <c r="P132" s="110"/>
     </row>
-    <row r="133" spans="2:16">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="109"/>
       <c r="C133" s="110"/>
       <c r="D133" s="160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E133" s="110"/>
       <c r="F133" s="110"/>
@@ -8087,7 +7974,7 @@
       <c r="O133" s="110"/>
       <c r="P133" s="110"/>
     </row>
-    <row r="134" spans="2:16">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="109"/>
       <c r="C134" s="110"/>
       <c r="D134" s="110"/>
@@ -8104,7 +7991,7 @@
       <c r="O134" s="110"/>
       <c r="P134" s="110"/>
     </row>
-    <row r="135" spans="2:16">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="109"/>
       <c r="C135" s="110"/>
       <c r="D135" s="110"/>
@@ -8121,7 +8008,7 @@
       <c r="O135" s="110"/>
       <c r="P135" s="110"/>
     </row>
-    <row r="136" spans="2:16">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="109"/>
       <c r="C136" s="110"/>
       <c r="D136" s="110"/>
@@ -8138,7 +8025,7 @@
       <c r="O136" s="110"/>
       <c r="P136" s="110"/>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="109"/>
       <c r="C137" s="110"/>
       <c r="D137" s="110"/>
@@ -8155,7 +8042,7 @@
       <c r="O137" s="110"/>
       <c r="P137" s="110"/>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="109"/>
       <c r="C138" s="110"/>
       <c r="D138" s="110"/>
@@ -8172,7 +8059,7 @@
       <c r="O138" s="110"/>
       <c r="P138" s="110"/>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="109"/>
       <c r="C139" s="110"/>
       <c r="D139" s="110"/>
@@ -8189,7 +8076,7 @@
       <c r="O139" s="110"/>
       <c r="P139" s="110"/>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="109"/>
       <c r="C140" s="110"/>
       <c r="D140" s="110"/>
@@ -8206,7 +8093,7 @@
       <c r="O140" s="110"/>
       <c r="P140" s="110"/>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="109"/>
       <c r="C141" s="110"/>
       <c r="D141" s="110"/>
@@ -8223,7 +8110,7 @@
       <c r="O141" s="110"/>
       <c r="P141" s="110"/>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="109"/>
       <c r="C142" s="110"/>
       <c r="D142" s="110"/>
@@ -8240,7 +8127,7 @@
       <c r="O142" s="110"/>
       <c r="P142" s="110"/>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="109"/>
       <c r="C143" s="110"/>
       <c r="D143" s="110"/>
@@ -8257,7 +8144,7 @@
       <c r="O143" s="110"/>
       <c r="P143" s="110"/>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="109"/>
       <c r="C144" s="110"/>
       <c r="D144" s="110"/>
@@ -8274,7 +8161,7 @@
       <c r="O144" s="110"/>
       <c r="P144" s="110"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B145" s="109"/>
       <c r="C145" s="110"/>
       <c r="D145" s="110"/>
@@ -8291,7 +8178,7 @@
       <c r="O145" s="110"/>
       <c r="P145" s="110"/>
     </row>
-    <row r="146" spans="2:16">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B146" s="109"/>
       <c r="C146" s="110"/>
       <c r="D146" s="110"/>
@@ -8308,7 +8195,7 @@
       <c r="O146" s="110"/>
       <c r="P146" s="110"/>
     </row>
-    <row r="147" spans="2:16">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B147" s="109"/>
       <c r="C147" s="110"/>
       <c r="D147" s="110"/>
@@ -8325,7 +8212,7 @@
       <c r="O147" s="110"/>
       <c r="P147" s="110"/>
     </row>
-    <row r="148" spans="2:16">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B148" s="109"/>
       <c r="C148" s="110"/>
       <c r="D148" s="110"/>
@@ -8342,7 +8229,7 @@
       <c r="O148" s="110"/>
       <c r="P148" s="110"/>
     </row>
-    <row r="149" spans="2:16">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B149" s="109"/>
       <c r="C149" s="110"/>
       <c r="D149" s="110"/>
@@ -8359,7 +8246,7 @@
       <c r="O149" s="110"/>
       <c r="P149" s="110"/>
     </row>
-    <row r="150" spans="2:16">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B150" s="109"/>
       <c r="C150" s="110"/>
       <c r="D150" s="110"/>
@@ -8376,7 +8263,7 @@
       <c r="O150" s="110"/>
       <c r="P150" s="110"/>
     </row>
-    <row r="151" spans="2:16">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B151" s="109"/>
       <c r="C151" s="110" t="s">
         <v>96</v>
@@ -8395,10 +8282,10 @@
       <c r="O151" s="110"/>
       <c r="P151" s="110"/>
     </row>
-    <row r="152" spans="2:16">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B152" s="109"/>
       <c r="C152" s="110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D152" s="110"/>
       <c r="E152" s="110"/>
@@ -8414,7 +8301,7 @@
       <c r="O152" s="110"/>
       <c r="P152" s="110"/>
     </row>
-    <row r="153" spans="2:16">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B153" s="109"/>
       <c r="C153" s="110"/>
       <c r="D153" s="110"/>
@@ -8431,7 +8318,7 @@
       <c r="O153" s="110"/>
       <c r="P153" s="110"/>
     </row>
-    <row r="154" spans="2:16">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B154" s="109"/>
       <c r="C154" s="110"/>
       <c r="D154" s="110"/>
@@ -8448,7 +8335,7 @@
       <c r="O154" s="110"/>
       <c r="P154" s="110"/>
     </row>
-    <row r="155" spans="2:16">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B155" s="109"/>
       <c r="C155" s="110"/>
       <c r="D155" s="110"/>
@@ -8465,7 +8352,7 @@
       <c r="O155" s="110"/>
       <c r="P155" s="110"/>
     </row>
-    <row r="156" spans="2:16">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B156" s="109"/>
       <c r="C156" s="110"/>
       <c r="D156" s="110"/>
@@ -8482,7 +8369,7 @@
       <c r="O156" s="110"/>
       <c r="P156" s="110"/>
     </row>
-    <row r="157" spans="2:16">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B157" s="109"/>
       <c r="C157" s="110"/>
       <c r="D157" s="110"/>
@@ -8499,7 +8386,7 @@
       <c r="O157" s="110"/>
       <c r="P157" s="110"/>
     </row>
-    <row r="158" spans="2:16">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B158" s="109"/>
       <c r="C158" s="110"/>
       <c r="D158" s="110"/>
@@ -8516,7 +8403,7 @@
       <c r="O158" s="110"/>
       <c r="P158" s="110"/>
     </row>
-    <row r="159" spans="2:16">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B159" s="109"/>
       <c r="C159" s="110"/>
       <c r="D159" s="110"/>
@@ -8533,7 +8420,7 @@
       <c r="O159" s="110"/>
       <c r="P159" s="110"/>
     </row>
-    <row r="160" spans="2:16">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B160" s="109"/>
       <c r="C160" s="110"/>
       <c r="D160" s="110"/>
@@ -8550,7 +8437,7 @@
       <c r="O160" s="110"/>
       <c r="P160" s="110"/>
     </row>
-    <row r="161" spans="2:16">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B161" s="109"/>
       <c r="C161" s="110"/>
       <c r="D161" s="110"/>
@@ -8567,7 +8454,7 @@
       <c r="O161" s="110"/>
       <c r="P161" s="110"/>
     </row>
-    <row r="162" spans="2:16">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B162" s="109"/>
       <c r="C162" s="110"/>
       <c r="D162" s="110"/>
@@ -8584,7 +8471,7 @@
       <c r="O162" s="110"/>
       <c r="P162" s="110"/>
     </row>
-    <row r="163" spans="2:16">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B163" s="109"/>
       <c r="C163" s="110"/>
       <c r="D163" s="110"/>
@@ -8601,7 +8488,7 @@
       <c r="O163" s="110"/>
       <c r="P163" s="110"/>
     </row>
-    <row r="164" spans="2:16">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B164" s="109"/>
       <c r="C164" s="110"/>
       <c r="D164" s="110"/>
@@ -8618,7 +8505,7 @@
       <c r="O164" s="110"/>
       <c r="P164" s="110"/>
     </row>
-    <row r="165" spans="2:16">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B165" s="109"/>
       <c r="C165" s="110"/>
       <c r="D165" s="110"/>
@@ -8635,7 +8522,7 @@
       <c r="O165" s="110"/>
       <c r="P165" s="110"/>
     </row>
-    <row r="166" spans="2:16">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B166" s="109"/>
       <c r="C166" s="110"/>
       <c r="D166" s="110"/>
@@ -8652,7 +8539,7 @@
       <c r="O166" s="110"/>
       <c r="P166" s="110"/>
     </row>
-    <row r="167" spans="2:16">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B167" s="109"/>
       <c r="C167" s="110"/>
       <c r="D167" s="110"/>
@@ -8669,7 +8556,7 @@
       <c r="O167" s="110"/>
       <c r="P167" s="110"/>
     </row>
-    <row r="168" spans="2:16">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" s="109"/>
       <c r="C168" s="110"/>
       <c r="D168" s="110"/>
@@ -8686,7 +8573,7 @@
       <c r="O168" s="110"/>
       <c r="P168" s="110"/>
     </row>
-    <row r="169" spans="2:16">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B169" s="109"/>
       <c r="C169" s="110"/>
       <c r="D169" s="110"/>
@@ -8703,7 +8590,7 @@
       <c r="O169" s="110"/>
       <c r="P169" s="110"/>
     </row>
-    <row r="170" spans="2:16">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B170" s="109"/>
       <c r="C170" s="110"/>
       <c r="D170" s="110">
@@ -8724,16 +8611,16 @@
       <c r="O170" s="110"/>
       <c r="P170" s="110"/>
     </row>
-    <row r="171" spans="2:16">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B171" s="109"/>
       <c r="C171" s="111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D171" s="110">
         <v>917</v>
       </c>
       <c r="E171" s="110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F171" s="110"/>
       <c r="G171" s="110"/>
@@ -8747,14 +8634,14 @@
       <c r="O171" s="110"/>
       <c r="P171" s="110"/>
     </row>
-    <row r="172" spans="2:16">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" s="109"/>
       <c r="C172" s="110"/>
       <c r="D172" s="110">
         <v>706</v>
       </c>
       <c r="E172" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F172" s="110"/>
       <c r="G172" s="110"/>
@@ -8768,16 +8655,16 @@
       <c r="O172" s="110"/>
       <c r="P172" s="110"/>
     </row>
-    <row r="173" spans="2:16">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B173" s="109"/>
       <c r="C173" s="111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D173" s="110">
         <v>13.17</v>
       </c>
       <c r="E173" s="111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F173" s="110"/>
       <c r="G173" s="110"/>
@@ -8791,14 +8678,14 @@
       <c r="O173" s="110"/>
       <c r="P173" s="110"/>
     </row>
-    <row r="174" spans="2:16">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B174" s="109"/>
       <c r="C174" s="110"/>
       <c r="D174" s="110">
         <v>10.1</v>
       </c>
       <c r="E174" s="111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F174" s="110"/>
       <c r="G174" s="110"/>
@@ -8812,16 +8699,16 @@
       <c r="O174" s="110"/>
       <c r="P174" s="110"/>
     </row>
-    <row r="175" spans="2:16">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B175" s="109"/>
       <c r="C175" s="111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D175" s="110">
         <v>3.6</v>
       </c>
       <c r="E175" s="111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F175" s="110"/>
       <c r="G175" s="110"/>
@@ -8835,14 +8722,14 @@
       <c r="O175" s="110"/>
       <c r="P175" s="110"/>
     </row>
-    <row r="176" spans="2:16">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B176" s="109"/>
       <c r="C176" s="110"/>
       <c r="D176" s="110">
         <v>2.7</v>
       </c>
       <c r="E176" s="111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F176" s="110"/>
       <c r="G176" s="110"/>
@@ -8856,7 +8743,7 @@
       <c r="O176" s="110"/>
       <c r="P176" s="110"/>
     </row>
-    <row r="177" spans="2:16">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B177" s="109"/>
       <c r="C177" s="110"/>
       <c r="D177" s="110"/>
@@ -8873,10 +8760,10 @@
       <c r="O177" s="110"/>
       <c r="P177" s="110"/>
     </row>
-    <row r="178" spans="2:16">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B178" s="109"/>
       <c r="C178" s="112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D178" s="110"/>
       <c r="E178" s="110"/>
@@ -8892,10 +8779,10 @@
       <c r="O178" s="110"/>
       <c r="P178" s="110"/>
     </row>
-    <row r="179" spans="2:16">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B179" s="109"/>
       <c r="C179" s="112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D179" s="110"/>
       <c r="E179" s="110"/>
@@ -8911,7 +8798,7 @@
       <c r="O179" s="110"/>
       <c r="P179" s="110"/>
     </row>
-    <row r="180" spans="2:16">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B180" s="109"/>
       <c r="C180" s="110"/>
       <c r="D180" s="110"/>
@@ -8928,7 +8815,7 @@
       <c r="O180" s="110"/>
       <c r="P180" s="110"/>
     </row>
-    <row r="181" spans="2:16">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B181" s="109"/>
       <c r="C181" s="110"/>
       <c r="D181" s="110"/>
@@ -8945,7 +8832,7 @@
       <c r="O181" s="110"/>
       <c r="P181" s="110"/>
     </row>
-    <row r="182" spans="2:16">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B182" s="109"/>
       <c r="C182" s="110"/>
       <c r="D182" s="110"/>
@@ -8962,7 +8849,7 @@
       <c r="O182" s="110"/>
       <c r="P182" s="110"/>
     </row>
-    <row r="183" spans="2:16">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B183" s="109"/>
       <c r="C183" s="110"/>
       <c r="D183" s="110"/>
@@ -8979,7 +8866,7 @@
       <c r="O183" s="110"/>
       <c r="P183" s="110"/>
     </row>
-    <row r="184" spans="2:16">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B184" s="109"/>
       <c r="C184" s="110"/>
       <c r="D184" s="110"/>
@@ -8996,7 +8883,7 @@
       <c r="O184" s="110"/>
       <c r="P184" s="110"/>
     </row>
-    <row r="185" spans="2:16">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B185" s="109"/>
       <c r="C185" s="110"/>
       <c r="D185" s="110">
@@ -9017,16 +8904,16 @@
       <c r="O185" s="110"/>
       <c r="P185" s="110"/>
     </row>
-    <row r="186" spans="2:16">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="109"/>
       <c r="C186" s="112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D186" s="110">
         <v>1006</v>
       </c>
       <c r="E186" s="112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F186" s="110"/>
       <c r="G186" s="110"/>
@@ -9040,14 +8927,14 @@
       <c r="O186" s="110"/>
       <c r="P186" s="110"/>
     </row>
-    <row r="187" spans="2:16">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B187" s="109"/>
       <c r="C187" s="110"/>
       <c r="D187" s="110">
         <v>794</v>
       </c>
       <c r="E187" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F187" s="110"/>
       <c r="G187" s="110"/>
@@ -9061,7 +8948,7 @@
       <c r="O187" s="110"/>
       <c r="P187" s="110"/>
     </row>
-    <row r="188" spans="2:16">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B188" s="109"/>
       <c r="C188" s="110"/>
       <c r="D188" s="110"/>
@@ -9078,16 +8965,16 @@
       <c r="O188" s="110"/>
       <c r="P188" s="110"/>
     </row>
-    <row r="189" spans="2:16">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B189" s="109"/>
       <c r="C189" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D189" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E189" s="112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F189" s="110"/>
       <c r="G189" s="110"/>
@@ -9101,17 +8988,17 @@
       <c r="O189" s="110"/>
       <c r="P189" s="110"/>
     </row>
-    <row r="190" spans="2:16">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B190" s="109"/>
       <c r="C190" s="112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D190" s="110">
         <f>AVERAGE(6.2,5.5)</f>
         <v>5.85</v>
       </c>
       <c r="E190" s="112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F190" s="110"/>
       <c r="G190" s="110"/>
@@ -9125,14 +9012,14 @@
       <c r="O190" s="110"/>
       <c r="P190" s="110"/>
     </row>
-    <row r="191" spans="2:16">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B191" s="109"/>
       <c r="C191" s="110"/>
       <c r="D191" s="110">
         <v>4.53</v>
       </c>
       <c r="E191" s="112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F191" s="110"/>
       <c r="G191" s="110"/>
@@ -9146,16 +9033,16 @@
       <c r="O191" s="110"/>
       <c r="P191" s="110"/>
     </row>
-    <row r="192" spans="2:16">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B192" s="109"/>
       <c r="C192" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="D192" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E192" s="112" t="s">
         <v>161</v>
-      </c>
-      <c r="D192" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E192" s="112" t="s">
-        <v>162</v>
       </c>
       <c r="F192" s="110"/>
       <c r="G192" s="110"/>
@@ -9169,17 +9056,17 @@
       <c r="O192" s="110"/>
       <c r="P192" s="110"/>
     </row>
-    <row r="193" spans="2:16">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B193" s="109"/>
       <c r="C193" s="112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D193" s="110">
         <f>AVERAGE(3.5,2)</f>
         <v>2.75</v>
       </c>
       <c r="E193" s="112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F193" s="110"/>
       <c r="G193" s="110"/>
@@ -9193,14 +9080,14 @@
       <c r="O193" s="110"/>
       <c r="P193" s="110"/>
     </row>
-    <row r="194" spans="2:16">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B194" s="109"/>
       <c r="C194" s="110"/>
       <c r="D194" s="110">
         <v>2</v>
       </c>
       <c r="E194" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F194" s="110"/>
       <c r="G194" s="110"/>
@@ -9214,7 +9101,7 @@
       <c r="O194" s="110"/>
       <c r="P194" s="110"/>
     </row>
-    <row r="195" spans="2:16">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B195" s="109"/>
       <c r="C195" s="110"/>
       <c r="D195" s="110"/>
@@ -9231,7 +9118,7 @@
       <c r="O195" s="110"/>
       <c r="P195" s="110"/>
     </row>
-    <row r="196" spans="2:16">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B196" s="109"/>
       <c r="C196" s="110"/>
       <c r="D196" s="110"/>
@@ -9248,7 +9135,7 @@
       <c r="O196" s="110"/>
       <c r="P196" s="110"/>
     </row>
-    <row r="197" spans="2:16">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B197" s="109"/>
       <c r="C197" s="110"/>
       <c r="D197" s="110"/>
@@ -9265,7 +9152,7 @@
       <c r="O197" s="110"/>
       <c r="P197" s="110"/>
     </row>
-    <row r="198" spans="2:16">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B198" s="109"/>
       <c r="C198" s="110"/>
       <c r="D198" s="110"/>
@@ -9282,7 +9169,7 @@
       <c r="O198" s="110"/>
       <c r="P198" s="110"/>
     </row>
-    <row r="199" spans="2:16">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B199" s="109"/>
       <c r="C199" s="110"/>
       <c r="D199" s="110"/>
@@ -9299,7 +9186,7 @@
       <c r="O199" s="110"/>
       <c r="P199" s="110"/>
     </row>
-    <row r="200" spans="2:16">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B200" s="109"/>
       <c r="C200" s="110"/>
       <c r="D200" s="110"/>
@@ -9316,7 +9203,7 @@
       <c r="O200" s="110"/>
       <c r="P200" s="110"/>
     </row>
-    <row r="201" spans="2:16">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B201" s="109"/>
       <c r="C201" s="110"/>
       <c r="D201" s="110"/>
@@ -9333,7 +9220,7 @@
       <c r="O201" s="110"/>
       <c r="P201" s="110"/>
     </row>
-    <row r="202" spans="2:16">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B202" s="109"/>
       <c r="C202" s="110"/>
       <c r="D202" s="110"/>
@@ -9350,7 +9237,7 @@
       <c r="O202" s="110"/>
       <c r="P202" s="110"/>
     </row>
-    <row r="203" spans="2:16">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B203" s="109"/>
       <c r="C203" s="110"/>
       <c r="D203" s="110"/>
@@ -9367,7 +9254,7 @@
       <c r="O203" s="110"/>
       <c r="P203" s="110"/>
     </row>
-    <row r="204" spans="2:16">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B204" s="109"/>
       <c r="C204" s="110"/>
       <c r="D204" s="110"/>
@@ -9384,10 +9271,10 @@
       <c r="O204" s="110"/>
       <c r="P204" s="110"/>
     </row>
-    <row r="205" spans="2:16">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B205" s="109"/>
       <c r="C205" s="162" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D205" s="110"/>
       <c r="E205" s="110"/>
@@ -9403,10 +9290,10 @@
       <c r="O205" s="110"/>
       <c r="P205" s="110"/>
     </row>
-    <row r="206" spans="2:16">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B206" s="109"/>
       <c r="C206" s="162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D206" s="110"/>
       <c r="E206" s="110"/>
@@ -9422,7 +9309,7 @@
       <c r="O206" s="110"/>
       <c r="P206" s="110"/>
     </row>
-    <row r="207" spans="2:16">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B207" s="109"/>
       <c r="C207" s="110"/>
       <c r="D207" s="110"/>
@@ -9439,7 +9326,7 @@
       <c r="O207" s="110"/>
       <c r="P207" s="110"/>
     </row>
-    <row r="208" spans="2:16">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B208" s="109"/>
       <c r="C208" s="110"/>
       <c r="D208" s="110"/>
@@ -9456,7 +9343,7 @@
       <c r="O208" s="110"/>
       <c r="P208" s="110"/>
     </row>
-    <row r="209" spans="2:16">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B209" s="109"/>
       <c r="C209" s="110"/>
       <c r="D209" s="110"/>
@@ -9473,7 +9360,7 @@
       <c r="O209" s="110"/>
       <c r="P209" s="110"/>
     </row>
-    <row r="210" spans="2:16">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B210" s="109"/>
       <c r="C210" s="110"/>
       <c r="D210" s="110">
@@ -9494,16 +9381,16 @@
       <c r="O210" s="110"/>
       <c r="P210" s="110"/>
     </row>
-    <row r="211" spans="2:16">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B211" s="109"/>
       <c r="C211" s="163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D211" s="110">
         <v>14.39</v>
       </c>
       <c r="E211" s="163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F211" s="110"/>
       <c r="G211" s="110"/>
@@ -9517,14 +9404,14 @@
       <c r="O211" s="110"/>
       <c r="P211" s="110"/>
     </row>
-    <row r="212" spans="2:16">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B212" s="109"/>
       <c r="C212" s="163"/>
       <c r="D212" s="110">
         <v>11</v>
       </c>
       <c r="E212" s="163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F212" s="110"/>
       <c r="G212" s="110"/>
@@ -9538,7 +9425,7 @@
       <c r="O212" s="110"/>
       <c r="P212" s="110"/>
     </row>
-    <row r="213" spans="2:16">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B213" s="109"/>
       <c r="C213" s="110"/>
       <c r="D213" s="110"/>
@@ -9555,16 +9442,16 @@
       <c r="O213" s="110"/>
       <c r="P213" s="110"/>
     </row>
-    <row r="214" spans="2:16">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B214" s="109"/>
       <c r="C214" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D214" s="110">
         <v>3.43</v>
       </c>
       <c r="E214" s="163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F214" s="110"/>
       <c r="G214" s="110"/>
@@ -9578,14 +9465,14 @@
       <c r="O214" s="110"/>
       <c r="P214" s="110"/>
     </row>
-    <row r="215" spans="2:16">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B215" s="109"/>
       <c r="C215" s="110"/>
       <c r="D215" s="110">
         <v>2.6</v>
       </c>
       <c r="E215" s="163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F215" s="110"/>
       <c r="G215" s="110"/>
@@ -9599,7 +9486,7 @@
       <c r="O215" s="110"/>
       <c r="P215" s="110"/>
     </row>
-    <row r="216" spans="2:16">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B216" s="109"/>
       <c r="C216" s="110"/>
       <c r="D216" s="110"/>
@@ -9616,7 +9503,7 @@
       <c r="O216" s="110"/>
       <c r="P216" s="110"/>
     </row>
-    <row r="217" spans="2:16">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B217" s="109"/>
       <c r="C217" s="110"/>
       <c r="D217" s="110"/>
@@ -9633,7 +9520,7 @@
       <c r="O217" s="110"/>
       <c r="P217" s="110"/>
     </row>
-    <row r="218" spans="2:16">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B218" s="109"/>
       <c r="C218" s="110"/>
       <c r="D218" s="110"/>
@@ -9650,7 +9537,7 @@
       <c r="O218" s="110"/>
       <c r="P218" s="110"/>
     </row>
-    <row r="219" spans="2:16">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B219" s="109"/>
       <c r="C219" s="110"/>
       <c r="D219" s="110"/>
@@ -9667,7 +9554,7 @@
       <c r="O219" s="110"/>
       <c r="P219" s="110"/>
     </row>
-    <row r="220" spans="2:16">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B220" s="109"/>
       <c r="C220" s="110"/>
       <c r="D220" s="110"/>
@@ -9684,7 +9571,7 @@
       <c r="O220" s="110"/>
       <c r="P220" s="110"/>
     </row>
-    <row r="221" spans="2:16">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B221" s="109"/>
       <c r="C221" s="110"/>
       <c r="D221" s="110"/>
@@ -9701,7 +9588,7 @@
       <c r="O221" s="110"/>
       <c r="P221" s="110"/>
     </row>
-    <row r="222" spans="2:16">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B222" s="109"/>
       <c r="C222" s="110"/>
       <c r="D222" s="110"/>
@@ -9718,7 +9605,7 @@
       <c r="O222" s="110"/>
       <c r="P222" s="110"/>
     </row>
-    <row r="223" spans="2:16">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B223" s="109"/>
       <c r="C223" s="110"/>
       <c r="D223" s="110"/>
@@ -9735,7 +9622,7 @@
       <c r="O223" s="110"/>
       <c r="P223" s="110"/>
     </row>
-    <row r="224" spans="2:16">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B224" s="109"/>
       <c r="C224" s="110"/>
       <c r="D224" s="110"/>
@@ -9752,7 +9639,7 @@
       <c r="O224" s="110"/>
       <c r="P224" s="110"/>
     </row>
-    <row r="225" spans="2:16">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B225" s="109"/>
       <c r="C225" s="110"/>
       <c r="D225" s="110"/>
@@ -9769,7 +9656,7 @@
       <c r="O225" s="110"/>
       <c r="P225" s="110"/>
     </row>
-    <row r="226" spans="2:16">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B226" s="109"/>
       <c r="C226" s="110"/>
       <c r="D226" s="110"/>
@@ -9786,7 +9673,7 @@
       <c r="O226" s="110"/>
       <c r="P226" s="110"/>
     </row>
-    <row r="227" spans="2:16">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B227" s="109"/>
       <c r="C227" s="110"/>
       <c r="D227" s="110"/>
@@ -9803,7 +9690,7 @@
       <c r="O227" s="110"/>
       <c r="P227" s="110"/>
     </row>
-    <row r="228" spans="2:16">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B228" s="109"/>
       <c r="C228" s="110"/>
       <c r="D228" s="110"/>
@@ -9820,7 +9707,7 @@
       <c r="O228" s="110"/>
       <c r="P228" s="110"/>
     </row>
-    <row r="229" spans="2:16">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B229" s="109"/>
       <c r="C229" s="110"/>
       <c r="D229" s="110"/>
@@ -9837,7 +9724,7 @@
       <c r="O229" s="110"/>
       <c r="P229" s="110"/>
     </row>
-    <row r="230" spans="2:16">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B230" s="109"/>
       <c r="C230" s="110"/>
       <c r="D230" s="110"/>
@@ -9858,10 +9745,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_combined_cycle_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_combined_cycle_network_gas.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB55C3F9-3579-424F-814E-F722DD78E4A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0B40E-BC6C-E84F-B240-D5A0B3D4BE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
   <si>
     <t>Source</t>
   </si>
@@ -732,6 +738,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1497,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1788,6 +1797,7 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2927,12 +2937,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -3106,23 +3116,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3609,15 +3619,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>57</v>
+      <c r="I30" s="173" t="s">
+        <v>202</v>
       </c>
       <c r="J30" s="97"/>
     </row>
@@ -3846,39 +3856,39 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="111" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="111" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="111" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="111" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="111" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="111" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="111" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="111" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="111" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="111" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="111" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="111" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="111" customWidth="1"/>
     <col min="8" max="8" width="11" style="111" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="111" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="112" customWidth="1"/>
-    <col min="11" max="11" width="2.1640625" style="112" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="112" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="112" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="112" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="112" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="112" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="112" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="112" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="112" customWidth="1"/>
     <col min="15" max="15" width="3" style="112" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="112" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="112" customWidth="1"/>
     <col min="17" max="17" width="3" style="112" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" style="112" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="112" customWidth="1"/>
     <col min="19" max="19" width="3" style="112" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="112" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="112" customWidth="1"/>
     <col min="21" max="21" width="3" style="112" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="112" customWidth="1"/>
-    <col min="23" max="23" width="2.5" style="112" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="112" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="112" customWidth="1"/>
+    <col min="23" max="23" width="2.42578125" style="112" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="112" customWidth="1"/>
     <col min="25" max="25" width="3" style="112" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="112" customWidth="1"/>
-    <col min="27" max="27" width="3.5" style="112" customWidth="1"/>
-    <col min="28" max="28" width="8.5" style="112" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="112" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" style="112" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="112" customWidth="1"/>
     <col min="29" max="29" width="2" style="112" customWidth="1"/>
-    <col min="30" max="30" width="80.5" style="111" customWidth="1"/>
-    <col min="31" max="16384" width="10.6640625" style="111"/>
+    <col min="30" max="30" width="80.42578125" style="111" customWidth="1"/>
+    <col min="31" max="16384" width="10.7109375" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="17" thickBot="1"/>
@@ -4834,18 +4844,18 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="136.6640625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="136.7109375" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4977,7 +4987,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="34">
       <c r="B10" s="51"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -5026,7 +5036,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="32">
+    <row r="13" spans="2:11" ht="34">
       <c r="B13" s="51"/>
       <c r="C13" s="59"/>
       <c r="D13" s="60"/>
@@ -5436,7 +5446,7 @@
       <c r="J38" s="66"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" ht="17">
       <c r="B39" s="51"/>
       <c r="C39" s="59"/>
       <c r="D39" s="64"/>
@@ -5542,11 +5552,11 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="103" customWidth="1"/>
     <col min="2" max="2" width="4" style="103" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="103"/>
+    <col min="3" max="16384" width="10.7109375" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
